--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c95f3ea938ece6d6/Desktop/spsresult/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{1D98BBCC-EE21-4704-9C64-9A59FDA8608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAFE7F77-5B53-45E2-9B5C-AEC84ABCA3EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8749C0-8BE7-402A-AF27-D75C10A80BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E77E95B9-6C72-458A-B6BB-E1A7312116CE}"/>
   </bookViews>
@@ -39,6 +39,72 @@
     <t>FatherName</t>
   </si>
   <si>
+    <t>Aarav</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Rehan</t>
+  </si>
+  <si>
+    <t>Ashif</t>
+  </si>
+  <si>
+    <t>Ashraf</t>
+  </si>
+  <si>
+    <t>Golu</t>
+  </si>
+  <si>
+    <t>Kishan</t>
+  </si>
+  <si>
+    <t>sohail</t>
+  </si>
+  <si>
+    <t>Sadaf</t>
+  </si>
+  <si>
+    <t>Shifa</t>
+  </si>
+  <si>
+    <t>Gurmit</t>
+  </si>
+  <si>
+    <t>Kaif</t>
+  </si>
+  <si>
+    <t>Samser</t>
+  </si>
+  <si>
+    <t>Najmur</t>
+  </si>
+  <si>
+    <t>Shahid</t>
+  </si>
+  <si>
+    <t>Tanzeem</t>
+  </si>
+  <si>
+    <t>Tanfeez</t>
+  </si>
+  <si>
+    <t>Ejaj</t>
+  </si>
+  <si>
+    <t>Imteyaj</t>
+  </si>
+  <si>
     <t>Hindi</t>
   </si>
   <si>
@@ -67,72 +133,6 @@
   </si>
   <si>
     <t>Computer</t>
-  </si>
-  <si>
-    <t>Aarav</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Riya</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Rehan</t>
-  </si>
-  <si>
-    <t>Ashif</t>
-  </si>
-  <si>
-    <t>Ashraf</t>
-  </si>
-  <si>
-    <t>Golu</t>
-  </si>
-  <si>
-    <t>Kishan</t>
-  </si>
-  <si>
-    <t>sohail</t>
-  </si>
-  <si>
-    <t>Sadaf</t>
-  </si>
-  <si>
-    <t>Shifa</t>
-  </si>
-  <si>
-    <t>Gurmit</t>
-  </si>
-  <si>
-    <t>Kaif</t>
-  </si>
-  <si>
-    <t>Samser</t>
-  </si>
-  <si>
-    <t>Najmur</t>
-  </si>
-  <si>
-    <t>Shahid</t>
-  </si>
-  <si>
-    <t>Tanzeem</t>
-  </si>
-  <si>
-    <t>Tanfeez</t>
-  </si>
-  <si>
-    <t>Ejaj</t>
-  </si>
-  <si>
-    <t>Imteyaj</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,34 +520,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>78</v>
@@ -602,10 +602,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>68</v>
@@ -646,49 +646,49 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>60</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:N12" ca="1" si="0">RANDBETWEEN(40,100)</f>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="0"/>
         <v>90</v>
       </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -699,49 +699,49 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>65</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -752,49 +752,49 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>76</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -805,49 +805,49 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>46</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -858,49 +858,49 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>54</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K8">
+      <c r="M8">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="N8">
         <f t="shared" ca="1" si="0"/>
         <v>42</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -911,49 +911,49 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
         <v>62</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
-      </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -964,49 +964,49 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
         <v>87</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1017,49 +1017,49 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1070,45 +1070,45 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
         <v>67</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>70</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8749C0-8BE7-402A-AF27-D75C10A80BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC8F2B-59C0-4B65-9487-C30AA2D100EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E77E95B9-6C72-458A-B6BB-E1A7312116CE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Class</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Computer</t>
+  </si>
+  <si>
+    <t>LKG</t>
+  </si>
+  <si>
+    <t>Nasim</t>
+  </si>
+  <si>
+    <t>Kamal</t>
   </si>
 </sst>
 </file>
@@ -176,13 +185,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39A9FEF-C8A2-4DA1-A01D-DD3776233EC9}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,39 +668,39 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:N12" ca="1" si="0">RANDBETWEEN(40,100)</f>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -709,39 +721,39 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -762,39 +774,39 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -815,39 +827,39 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -868,39 +880,39 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="0"/>
         <v>91</v>
       </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -921,31 +933,31 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
@@ -953,7 +965,7 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -974,39 +986,39 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1027,27 +1039,27 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
@@ -1059,7 +1071,7 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1080,38 +1092,82 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="N12">
         <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" s="2">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2">
+        <v>76</v>
+      </c>
+      <c r="K13" s="2">
+        <v>98</v>
+      </c>
+      <c r="L13" s="2">
+        <v>98</v>
+      </c>
+      <c r="M13" s="2">
+        <v>67</v>
+      </c>
+      <c r="N13" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StarPublicSchool.edu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF4ECFD-E01A-4404-83F0-A9465B10F932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB98896-2B42-451A-810F-52F858160638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="306">
   <si>
     <t>Class</t>
   </si>
@@ -931,13 +931,13 @@
     <t>L.K.G-B</t>
   </si>
   <si>
-    <t>NUR -B</t>
-  </si>
-  <si>
     <t>S.S.T</t>
   </si>
   <si>
     <t>NURSERY-C</t>
+  </si>
+  <si>
+    <t>NURSERY-B</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1333,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1398,8 +1398,8 @@
       <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
+      <c r="G4" s="1">
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1439,8 +1439,8 @@
       <c r="F5" s="1">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
+      <c r="G5" s="1">
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1491,8 +1491,8 @@
       <c r="F7" s="1">
         <v>31</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
+      <c r="G7" s="1">
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -1543,8 +1543,8 @@
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
+      <c r="G9" s="1">
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -1655,8 +1655,8 @@
       <c r="F14" s="1">
         <v>30</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
+      <c r="G14" s="1">
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -1707,8 +1707,8 @@
       <c r="F16" s="1">
         <v>30</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
+      <c r="G16" s="1">
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -1797,8 +1797,8 @@
       <c r="F19" s="1">
         <v>31</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
+      <c r="G19" s="1">
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -1838,8 +1838,8 @@
       <c r="F20" s="1">
         <v>33</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
+      <c r="G20" s="1">
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
@@ -1958,8 +1958,8 @@
       <c r="F23" s="1">
         <v>32</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
+      <c r="G23" s="1">
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -1999,8 +1999,8 @@
       <c r="F24" s="1">
         <v>32</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
+      <c r="G24" s="1">
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -2037,8 +2037,8 @@
       <c r="F25" s="1">
         <v>36</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
+      <c r="G25" s="1">
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>16</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -2075,8 +2075,8 @@
       <c r="F26" s="1">
         <v>30</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
+      <c r="G26" s="1">
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>16</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -2179,8 +2179,8 @@
       <c r="F30" s="1">
         <v>35</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
+      <c r="G30" s="1">
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>16</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
@@ -2242,8 +2242,8 @@
       <c r="F33" s="1">
         <v>32</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
+      <c r="G33" s="1">
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>16</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
@@ -2280,8 +2280,8 @@
       <c r="F34" s="1">
         <v>33</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
+      <c r="G34" s="1">
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>16</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
@@ -2520,8 +2520,8 @@
       <c r="F40" s="1">
         <v>30</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>15</v>
+      <c r="G40" s="1">
+        <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>16</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
@@ -2558,8 +2558,8 @@
       <c r="F41" s="1">
         <v>32</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>15</v>
+      <c r="G41" s="1">
+        <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>16</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
@@ -2596,8 +2596,8 @@
       <c r="F42" s="1">
         <v>33</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>15</v>
+      <c r="G42" s="1">
+        <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>16</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
@@ -2634,8 +2634,8 @@
       <c r="F43" s="1">
         <v>33</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
+      <c r="G43" s="1">
+        <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>16</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2833,8 +2833,8 @@
       <c r="F48" s="1">
         <v>30</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>15</v>
+      <c r="G48" s="1">
+        <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>16</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B49" s="1">
         <v>5</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B50" s="1">
         <v>6</v>
@@ -2912,8 +2912,8 @@
       <c r="F50" s="1">
         <v>31</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
+      <c r="G50" s="1">
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>16</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B51" s="1">
         <v>7</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B52" s="1">
         <v>8</v>
@@ -2991,8 +2991,8 @@
       <c r="F52" s="1">
         <v>33</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>15</v>
+      <c r="G52" s="1">
+        <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>16</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B53" s="1">
         <v>9</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B54" s="1">
         <v>10</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B55" s="1">
         <v>11</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B56" s="1">
         <v>12</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B57" s="1">
         <v>13</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B58" s="1">
         <v>14</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B59" s="1">
         <v>15</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B60" s="1">
         <v>16</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B62" s="1">
         <v>18</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B63" s="1">
         <v>19</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B64" s="1">
         <v>20</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B65" s="1">
         <v>21</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B66" s="1">
         <v>22</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B67" s="1">
         <v>23</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B68" s="1">
         <v>24</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B69" s="1">
         <v>25</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B70" s="1">
         <v>26</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B71" s="1">
         <v>27</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B72" s="1">
         <v>28</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B73" s="1">
         <v>29</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B74" s="1">
         <v>30</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B75" s="1">
         <v>31</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B76" s="1">
         <v>32</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StarPublicSchool.edu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B48F257-2CC0-41EB-B0BC-3EB90C7E505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C1AB789-08A8-49E2-B5E6-44AE7734FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2016,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q496"/>
+  <dimension ref="A1:Q480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12864,132 +12864,519 @@
         <v>62</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="1">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>3</v>
+      </c>
+      <c r="B308" s="1">
+        <v>1</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E308" s="1">
+        <v>87</v>
+      </c>
+      <c r="F308" s="1">
+        <v>88</v>
+      </c>
+      <c r="G308" s="1">
+        <v>92</v>
+      </c>
+      <c r="H308" s="1">
+        <v>87</v>
+      </c>
+      <c r="I308" s="1">
+        <v>88</v>
+      </c>
+      <c r="J308" s="1">
+        <v>80</v>
+      </c>
+      <c r="K308" s="1">
+        <v>66</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M308" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>3</v>
+      </c>
+      <c r="B309" s="1">
+        <v>2</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E309" s="1">
+        <v>65</v>
+      </c>
+      <c r="F309" s="1">
+        <v>66</v>
+      </c>
+      <c r="G309" s="1">
+        <v>82</v>
+      </c>
+      <c r="H309" s="1">
+        <v>77</v>
+      </c>
+      <c r="I309" s="1">
+        <v>75</v>
+      </c>
+      <c r="J309" s="1">
+        <v>65</v>
+      </c>
+      <c r="K309" s="1">
+        <v>47</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M309" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>3</v>
+      </c>
+      <c r="B310" s="1">
+        <v>3</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E310" s="1">
+        <v>72</v>
+      </c>
+      <c r="F310" s="1">
+        <v>51</v>
+      </c>
+      <c r="G310" s="1">
+        <v>92</v>
+      </c>
+      <c r="H310" s="1">
+        <v>83</v>
+      </c>
+      <c r="I310" s="1">
+        <v>76</v>
+      </c>
+      <c r="J310" s="1">
+        <v>72</v>
+      </c>
+      <c r="K310" s="1">
+        <v>52</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M310" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>3</v>
+      </c>
+      <c r="B311" s="1">
         <v>4</v>
       </c>
-      <c r="B306" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="1">
-        <v>4</v>
-      </c>
-      <c r="B307" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="1">
-        <v>4</v>
-      </c>
-      <c r="B308" s="1">
+      <c r="C311" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E311" s="1">
+        <v>62</v>
+      </c>
+      <c r="F311" s="1">
+        <v>36</v>
+      </c>
+      <c r="G311" s="1">
+        <v>59</v>
+      </c>
+      <c r="H311" s="1">
+        <v>60</v>
+      </c>
+      <c r="I311" s="1">
+        <v>47</v>
+      </c>
+      <c r="J311" s="1">
+        <v>35</v>
+      </c>
+      <c r="K311" s="1">
+        <v>42</v>
+      </c>
+      <c r="M311" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" s="1">
-        <v>4</v>
-      </c>
-      <c r="B309" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="1">
-        <v>4</v>
-      </c>
-      <c r="B310" s="1">
+      <c r="B312" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="1">
-        <v>4</v>
-      </c>
-      <c r="B311" s="1">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>3</v>
+      </c>
+      <c r="B313" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="1">
-        <v>4</v>
-      </c>
-      <c r="B312" s="1">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>3</v>
+      </c>
+      <c r="B314" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="1">
-        <v>4</v>
-      </c>
-      <c r="B313" s="1">
+      <c r="C314" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E314" s="1">
+        <v>54</v>
+      </c>
+      <c r="F314" s="1">
+        <v>38</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H314" s="1">
+        <v>77</v>
+      </c>
+      <c r="I314" s="1">
+        <v>66</v>
+      </c>
+      <c r="J314" s="1">
+        <v>76</v>
+      </c>
+      <c r="K314" s="1">
+        <v>70</v>
+      </c>
+      <c r="L314" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M314" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>3</v>
+      </c>
+      <c r="B315" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="1">
-        <v>4</v>
-      </c>
-      <c r="B314" s="1">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>3</v>
+      </c>
+      <c r="B316" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="1">
-        <v>4</v>
-      </c>
-      <c r="B315" s="1">
+      <c r="C316" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E316" s="1">
+        <v>62</v>
+      </c>
+      <c r="F316" s="1">
+        <v>37</v>
+      </c>
+      <c r="G316" s="1">
+        <v>75</v>
+      </c>
+      <c r="H316" s="1">
+        <v>41</v>
+      </c>
+      <c r="I316" s="1">
+        <v>41</v>
+      </c>
+      <c r="J316" s="1">
+        <v>36</v>
+      </c>
+      <c r="K316" s="1">
+        <v>39</v>
+      </c>
+      <c r="L316" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M316" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>3</v>
+      </c>
+      <c r="B317" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="1">
-        <v>4</v>
-      </c>
-      <c r="B316" s="1">
+      <c r="C317" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E317" s="1">
+        <v>72</v>
+      </c>
+      <c r="F317" s="1">
+        <v>35</v>
+      </c>
+      <c r="G317" s="1">
+        <v>71</v>
+      </c>
+      <c r="H317" s="1">
+        <v>49</v>
+      </c>
+      <c r="I317" s="1">
+        <v>64</v>
+      </c>
+      <c r="J317" s="1">
+        <v>55</v>
+      </c>
+      <c r="K317" s="1">
+        <v>52</v>
+      </c>
+      <c r="L317" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M317" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>3</v>
+      </c>
+      <c r="B318" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="1">
-        <v>4</v>
-      </c>
-      <c r="B317" s="1">
+      <c r="C318" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E318" s="1">
+        <v>71</v>
+      </c>
+      <c r="F318" s="1">
+        <v>54</v>
+      </c>
+      <c r="G318" s="1">
+        <v>53</v>
+      </c>
+      <c r="H318" s="1">
+        <v>88</v>
+      </c>
+      <c r="I318" s="1">
+        <v>62</v>
+      </c>
+      <c r="J318" s="1">
+        <v>66</v>
+      </c>
+      <c r="K318" s="1">
+        <v>75</v>
+      </c>
+      <c r="L318" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M318" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>3</v>
+      </c>
+      <c r="B319" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="1">
-        <v>4</v>
-      </c>
-      <c r="B318" s="1">
+      <c r="C319" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E319" s="1">
+        <v>71</v>
+      </c>
+      <c r="F319" s="1">
+        <v>59</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H319" s="1">
+        <v>87</v>
+      </c>
+      <c r="I319" s="1">
+        <v>75</v>
+      </c>
+      <c r="J319" s="1">
+        <v>69</v>
+      </c>
+      <c r="K319" s="1">
+        <v>75</v>
+      </c>
+      <c r="L319" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M319" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>3</v>
+      </c>
+      <c r="B320" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="1">
-        <v>4</v>
-      </c>
-      <c r="B319" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="1">
-        <v>4</v>
-      </c>
-      <c r="B320" s="1">
-        <v>15</v>
+      <c r="C320" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E320" s="1">
+        <v>80</v>
+      </c>
+      <c r="F320" s="1">
+        <v>68</v>
+      </c>
+      <c r="G320" s="1">
+        <v>91</v>
+      </c>
+      <c r="H320" s="1">
+        <v>78</v>
+      </c>
+      <c r="I320" s="1">
+        <v>75</v>
+      </c>
+      <c r="J320" s="1">
+        <v>69</v>
+      </c>
+      <c r="K320" s="1">
+        <v>78</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M320" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B321" s="1">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E321" s="1">
+        <v>43</v>
+      </c>
+      <c r="F321" s="1">
+        <v>33</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H321" s="1">
+        <v>35</v>
+      </c>
+      <c r="I321" s="1">
+        <v>66</v>
+      </c>
+      <c r="J321" s="1">
+        <v>55</v>
+      </c>
+      <c r="K321" s="1">
+        <v>51</v>
+      </c>
+      <c r="L321" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M321" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>3</v>
+      </c>
+      <c r="B322" s="1">
+        <v>15</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E322" s="1">
+        <v>70</v>
+      </c>
+      <c r="F322" s="1">
+        <v>35</v>
+      </c>
+      <c r="G322" s="1">
+        <v>39</v>
+      </c>
+      <c r="H322" s="1">
+        <v>54</v>
+      </c>
+      <c r="I322" s="1">
+        <v>64</v>
+      </c>
+      <c r="J322" s="1">
+        <v>56</v>
+      </c>
+      <c r="K322" s="1">
+        <v>48</v>
+      </c>
+      <c r="L322" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M322" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>3</v>
+      </c>
+      <c r="B323" s="1">
+        <v>16</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E323" s="1">
+        <v>45</v>
+      </c>
+      <c r="F323" s="1">
+        <v>62</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H323" s="1">
+        <v>62</v>
+      </c>
+      <c r="I323" s="1">
+        <v>55</v>
+      </c>
+      <c r="J323" s="1">
+        <v>46</v>
+      </c>
+      <c r="K323" s="1">
+        <v>74</v>
+      </c>
+      <c r="L323" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M323" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.35">
@@ -12997,37 +13384,7 @@
         <v>3</v>
       </c>
       <c r="B324" s="1">
-        <v>1</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E324" s="1">
-        <v>87</v>
-      </c>
-      <c r="F324" s="1">
-        <v>88</v>
-      </c>
-      <c r="G324" s="1">
-        <v>92</v>
-      </c>
-      <c r="H324" s="1">
-        <v>87</v>
-      </c>
-      <c r="I324" s="1">
-        <v>88</v>
-      </c>
-      <c r="J324" s="1">
-        <v>80</v>
-      </c>
-      <c r="K324" s="1">
-        <v>66</v>
-      </c>
-      <c r="L324" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M324" s="1">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.35">
@@ -13035,37 +13392,37 @@
         <v>3</v>
       </c>
       <c r="B325" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="E325" s="1">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F325" s="1">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G325" s="1">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="H325" s="1">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I325" s="1">
+        <v>53</v>
+      </c>
+      <c r="J325" s="1">
+        <v>60</v>
+      </c>
+      <c r="K325" s="1">
         <v>75</v>
       </c>
-      <c r="J325" s="1">
-        <v>65</v>
-      </c>
-      <c r="K325" s="1">
-        <v>47</v>
-      </c>
       <c r="L325" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M325" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.35">
@@ -13073,37 +13430,37 @@
         <v>3</v>
       </c>
       <c r="B326" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>211</v>
+        <v>458</v>
       </c>
       <c r="E326" s="1">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F326" s="1">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G326" s="1">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H326" s="1">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I326" s="1">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J326" s="1">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K326" s="1">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="L326" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M326" s="1">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.35">
@@ -13111,34 +13468,37 @@
         <v>3</v>
       </c>
       <c r="B327" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>447</v>
+        <v>200</v>
       </c>
       <c r="E327" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F327" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G327" s="1">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H327" s="1">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I327" s="1">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="J327" s="1">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="K327" s="1">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="L327" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="M327" s="1">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.35">
@@ -13146,7 +13506,37 @@
         <v>3</v>
       </c>
       <c r="B328" s="1">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E328" s="1">
+        <v>50</v>
+      </c>
+      <c r="F328" s="1">
+        <v>28</v>
+      </c>
+      <c r="G328" s="1">
+        <v>62</v>
+      </c>
+      <c r="H328" s="1">
+        <v>58</v>
+      </c>
+      <c r="I328" s="1">
+        <v>68</v>
+      </c>
+      <c r="J328" s="1">
+        <v>57</v>
+      </c>
+      <c r="K328" s="1">
+        <v>65</v>
+      </c>
+      <c r="L328" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M328" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.35">
@@ -13154,7 +13544,37 @@
         <v>3</v>
       </c>
       <c r="B329" s="1">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E329" s="1">
+        <v>52</v>
+      </c>
+      <c r="F329" s="1">
+        <v>42</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H329" s="1">
+        <v>50</v>
+      </c>
+      <c r="I329" s="1">
+        <v>65</v>
+      </c>
+      <c r="J329" s="1">
+        <v>56</v>
+      </c>
+      <c r="K329" s="1">
+        <v>51</v>
+      </c>
+      <c r="L329" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M329" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.35">
@@ -13162,37 +13582,37 @@
         <v>3</v>
       </c>
       <c r="B330" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="E330" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F330" s="1">
-        <v>38</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="G330" s="1">
+        <v>52</v>
       </c>
       <c r="H330" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I330" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J330" s="1">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K330" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L330" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M330" s="1" t="s">
-        <v>15</v>
+      <c r="M330" s="1">
+        <v>65</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.35">
@@ -13200,7 +13620,37 @@
         <v>3</v>
       </c>
       <c r="B331" s="1">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E331" s="1">
+        <v>55</v>
+      </c>
+      <c r="F331" s="1">
+        <v>29</v>
+      </c>
+      <c r="G331" s="1">
+        <v>33</v>
+      </c>
+      <c r="H331" s="1">
+        <v>57</v>
+      </c>
+      <c r="I331" s="1">
+        <v>56</v>
+      </c>
+      <c r="J331" s="1">
+        <v>56</v>
+      </c>
+      <c r="K331" s="1">
+        <v>56</v>
+      </c>
+      <c r="L331" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M331" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.35">
@@ -13208,37 +13658,37 @@
         <v>3</v>
       </c>
       <c r="B332" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="E332" s="1">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F332" s="1">
+        <v>28</v>
+      </c>
+      <c r="G332" s="1">
+        <v>48</v>
+      </c>
+      <c r="H332" s="1">
+        <v>39</v>
+      </c>
+      <c r="I332" s="1">
+        <v>47</v>
+      </c>
+      <c r="J332" s="1">
+        <v>34</v>
+      </c>
+      <c r="K332" s="1">
         <v>37</v>
       </c>
-      <c r="G332" s="1">
-        <v>75</v>
-      </c>
-      <c r="H332" s="1">
-        <v>41</v>
-      </c>
-      <c r="I332" s="1">
-        <v>41</v>
-      </c>
-      <c r="J332" s="1">
-        <v>36</v>
-      </c>
-      <c r="K332" s="1">
-        <v>39</v>
-      </c>
       <c r="L332" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M332" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.35">
@@ -13246,37 +13696,37 @@
         <v>3</v>
       </c>
       <c r="B333" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E333" s="1">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F333" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G333" s="1">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H333" s="1">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I333" s="1">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J333" s="1">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K333" s="1">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="M333" s="1">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.35">
@@ -13284,37 +13734,7 @@
         <v>3</v>
       </c>
       <c r="B334" s="1">
-        <v>11</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E334" s="1">
-        <v>71</v>
-      </c>
-      <c r="F334" s="1">
-        <v>54</v>
-      </c>
-      <c r="G334" s="1">
-        <v>53</v>
-      </c>
-      <c r="H334" s="1">
-        <v>88</v>
-      </c>
-      <c r="I334" s="1">
-        <v>62</v>
-      </c>
-      <c r="J334" s="1">
-        <v>66</v>
-      </c>
-      <c r="K334" s="1">
-        <v>75</v>
-      </c>
-      <c r="L334" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M334" s="1">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.35">
@@ -13322,34 +13742,34 @@
         <v>3</v>
       </c>
       <c r="B335" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="E335" s="1">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F335" s="1">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H335" s="1">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="I335" s="1">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J335" s="1">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="K335" s="1">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="L335" s="1" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="M335" s="1" t="s">
         <v>15</v>
@@ -13360,37 +13780,37 @@
         <v>3</v>
       </c>
       <c r="B336" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="E336" s="1">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F336" s="1">
-        <v>68</v>
-      </c>
-      <c r="G336" s="1">
-        <v>91</v>
+        <v>26</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H336" s="1">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I336" s="1">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="J336" s="1">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="K336" s="1">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M336" s="1">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="M336" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.35">
@@ -13398,37 +13818,37 @@
         <v>3</v>
       </c>
       <c r="B337" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="E337" s="1">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F337" s="1">
-        <v>33</v>
-      </c>
-      <c r="G337" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="G337" s="1">
+        <v>51</v>
       </c>
       <c r="H337" s="1">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I337" s="1">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J337" s="1">
         <v>55</v>
       </c>
       <c r="K337" s="1">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L337" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M337" s="1">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.35">
@@ -13436,37 +13856,37 @@
         <v>3</v>
       </c>
       <c r="B338" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="E338" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F338" s="1">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G338" s="1">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H338" s="1">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I338" s="1">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J338" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K338" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L338" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M338" s="1">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.35">
@@ -13474,37 +13894,37 @@
         <v>3</v>
       </c>
       <c r="B339" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E339" s="1">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F339" s="1">
-        <v>62</v>
-      </c>
-      <c r="G339" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="G339" s="1">
+        <v>67</v>
       </c>
       <c r="H339" s="1">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I339" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J339" s="1">
         <v>46</v>
       </c>
       <c r="K339" s="1">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="L339" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M339" s="1" t="s">
-        <v>15</v>
+      <c r="M339" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.35">
@@ -13512,7 +13932,37 @@
         <v>3</v>
       </c>
       <c r="B340" s="1">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E340" s="1">
+        <v>37</v>
+      </c>
+      <c r="F340" s="1">
+        <v>31</v>
+      </c>
+      <c r="G340" s="1">
+        <v>66</v>
+      </c>
+      <c r="H340" s="1">
+        <v>60</v>
+      </c>
+      <c r="I340" s="1">
+        <v>72</v>
+      </c>
+      <c r="J340" s="1">
+        <v>57</v>
+      </c>
+      <c r="K340" s="1">
+        <v>70</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M340" s="1">
+        <v>41</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.35">
@@ -13520,37 +13970,37 @@
         <v>3</v>
       </c>
       <c r="B341" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="E341" s="1">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F341" s="1">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G341" s="1">
+        <v>58</v>
+      </c>
+      <c r="H341" s="1">
         <v>59</v>
       </c>
-      <c r="H341" s="1">
-        <v>86</v>
-      </c>
       <c r="I341" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J341" s="1">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="K341" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="L341" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M341" s="1">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.35">
@@ -13558,37 +14008,37 @@
         <v>3</v>
       </c>
       <c r="B342" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="E342" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F342" s="1">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G342" s="1">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H342" s="1">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I342" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J342" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K342" s="1">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="L342" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M342" s="1">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.35">
@@ -13596,37 +14046,37 @@
         <v>3</v>
       </c>
       <c r="B343" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>200</v>
+        <v>473</v>
       </c>
       <c r="E343" s="1">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F343" s="1">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G343" s="1">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="H343" s="1">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I343" s="1">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J343" s="1">
-        <v>64</v>
-      </c>
-      <c r="K343" s="1">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="K343" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="L343" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M343" s="1">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.35">
@@ -13634,37 +14084,37 @@
         <v>3</v>
       </c>
       <c r="B344" s="1">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="E344" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F344" s="1">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G344" s="1">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H344" s="1">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I344" s="1">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J344" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K344" s="1">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="L344" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M344" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.35">
@@ -13672,37 +14122,7 @@
         <v>3</v>
       </c>
       <c r="B345" s="1">
-        <v>22</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E345" s="1">
-        <v>52</v>
-      </c>
-      <c r="F345" s="1">
-        <v>42</v>
-      </c>
-      <c r="G345" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H345" s="1">
-        <v>50</v>
-      </c>
-      <c r="I345" s="1">
-        <v>65</v>
-      </c>
-      <c r="J345" s="1">
-        <v>56</v>
-      </c>
-      <c r="K345" s="1">
-        <v>51</v>
-      </c>
-      <c r="L345" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M345" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.35">
@@ -13710,37 +14130,37 @@
         <v>3</v>
       </c>
       <c r="B346" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="E346" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F346" s="1">
+        <v>43</v>
+      </c>
+      <c r="G346" s="1">
+        <v>10</v>
+      </c>
+      <c r="H346" s="1">
+        <v>79</v>
+      </c>
+      <c r="I346" s="1">
+        <v>55</v>
+      </c>
+      <c r="J346" s="1">
+        <v>60</v>
+      </c>
+      <c r="K346" s="1">
         <v>37</v>
       </c>
-      <c r="G346" s="1">
-        <v>52</v>
-      </c>
-      <c r="H346" s="1">
-        <v>73</v>
-      </c>
-      <c r="I346" s="1">
-        <v>60</v>
-      </c>
-      <c r="J346" s="1">
-        <v>64</v>
-      </c>
-      <c r="K346" s="1">
-        <v>71</v>
-      </c>
       <c r="L346" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M346" s="1">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.35">
@@ -13748,37 +14168,37 @@
         <v>3</v>
       </c>
       <c r="B347" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E347" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F347" s="1">
-        <v>29</v>
-      </c>
-      <c r="G347" s="1">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H347" s="1">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I347" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J347" s="1">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K347" s="1">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="L347" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M347" s="1">
-        <v>26</v>
+      <c r="M347" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.35">
@@ -13786,37 +14206,37 @@
         <v>3</v>
       </c>
       <c r="B348" s="1">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="E348" s="1">
         <v>52</v>
       </c>
       <c r="F348" s="1">
-        <v>28</v>
-      </c>
-      <c r="G348" s="1">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H348" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I348" s="1">
         <v>47</v>
       </c>
       <c r="J348" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K348" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L348" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M348" s="1">
-        <v>34</v>
+      <c r="M348" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.35">
@@ -13824,37 +14244,37 @@
         <v>3</v>
       </c>
       <c r="B349" s="1">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="E349" s="1">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F349" s="1">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G349" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H349" s="1">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I349" s="1">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J349" s="1">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="K349" s="1">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="L349" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M349" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.35">
@@ -13862,7 +14282,37 @@
         <v>3</v>
       </c>
       <c r="B350" s="1">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E350" s="1">
+        <v>25</v>
+      </c>
+      <c r="F350" s="1">
+        <v>57</v>
+      </c>
+      <c r="G350" s="1">
+        <v>43</v>
+      </c>
+      <c r="H350" s="1">
+        <v>31</v>
+      </c>
+      <c r="I350" s="1">
+        <v>62</v>
+      </c>
+      <c r="J350" s="1">
+        <v>44</v>
+      </c>
+      <c r="K350" s="1">
+        <v>32</v>
+      </c>
+      <c r="L350" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M350" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.35">
@@ -13870,37 +14320,37 @@
         <v>3</v>
       </c>
       <c r="B351" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="E351" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F351" s="1">
-        <v>27</v>
-      </c>
-      <c r="G351" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="G351" s="1">
+        <v>48</v>
       </c>
       <c r="H351" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I351" s="1">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J351" s="1">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K351" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L351" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M351" s="1" t="s">
-        <v>15</v>
+      <c r="M351" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.35">
@@ -13908,1121 +14358,1163 @@
         <v>3</v>
       </c>
       <c r="B352" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="E352" s="1">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F352" s="1">
-        <v>26</v>
-      </c>
-      <c r="G352" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="G352" s="1">
+        <v>36</v>
       </c>
       <c r="H352" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I352" s="1">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J352" s="1">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K352" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L352" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M352" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M352" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>3</v>
       </c>
       <c r="B353" s="1">
+        <v>46</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E353" s="1">
+        <v>52</v>
+      </c>
+      <c r="F353" s="1">
+        <v>28</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H353" s="1">
+        <v>32</v>
+      </c>
+      <c r="I353" s="1">
+        <v>53</v>
+      </c>
+      <c r="J353" s="1">
+        <v>45</v>
+      </c>
+      <c r="K353" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L353" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M353" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B354" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>4</v>
+      </c>
+      <c r="B357" s="1">
+        <v>1</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E357" s="1">
+        <v>70</v>
+      </c>
+      <c r="F357" s="1">
+        <v>50</v>
+      </c>
+      <c r="G357" s="1">
+        <v>65</v>
+      </c>
+      <c r="H357" s="1">
+        <v>75</v>
+      </c>
+      <c r="I357" s="1">
+        <v>80</v>
+      </c>
+      <c r="J357" s="1">
+        <v>88</v>
+      </c>
+      <c r="K357" s="1">
+        <v>80</v>
+      </c>
+      <c r="L357" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M357" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>4</v>
+      </c>
+      <c r="B358" s="1">
+        <v>2</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E358" s="1">
+        <v>76</v>
+      </c>
+      <c r="F358" s="1">
+        <v>59</v>
+      </c>
+      <c r="G358" s="1">
+        <v>68</v>
+      </c>
+      <c r="H358" s="1">
+        <v>49</v>
+      </c>
+      <c r="I358" s="1">
+        <v>88</v>
+      </c>
+      <c r="J358" s="1">
+        <v>78</v>
+      </c>
+      <c r="K358" s="1">
+        <v>48</v>
+      </c>
+      <c r="L358" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M358" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>4</v>
+      </c>
+      <c r="B359" s="1">
+        <v>3</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E359" s="1">
+        <v>70</v>
+      </c>
+      <c r="F359" s="1">
+        <v>36</v>
+      </c>
+      <c r="G359" s="1">
+        <v>50</v>
+      </c>
+      <c r="H359" s="1">
+        <v>48</v>
+      </c>
+      <c r="I359" s="1">
+        <v>34</v>
+      </c>
+      <c r="J359" s="1">
+        <v>51</v>
+      </c>
+      <c r="K359" s="1">
         <v>30</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E353" s="1">
-        <v>57</v>
-      </c>
-      <c r="F353" s="1">
+      <c r="L359" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M359" s="1">
         <v>32</v>
       </c>
-      <c r="G353" s="1">
-        <v>51</v>
-      </c>
-      <c r="H353" s="1">
-        <v>47</v>
-      </c>
-      <c r="I353" s="1">
-        <v>52</v>
-      </c>
-      <c r="J353" s="1">
-        <v>55</v>
-      </c>
-      <c r="K353" s="1">
-        <v>41</v>
-      </c>
-      <c r="L353" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M353" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A354" s="1">
-        <v>3</v>
-      </c>
-      <c r="B354" s="1">
-        <v>31</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E354" s="1">
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>4</v>
+      </c>
+      <c r="B360" s="1">
+        <v>4</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E360" s="1">
         <v>60</v>
-      </c>
-      <c r="F354" s="1">
-        <v>49</v>
-      </c>
-      <c r="G354" s="1">
-        <v>63</v>
-      </c>
-      <c r="H354" s="1">
-        <v>63</v>
-      </c>
-      <c r="I354" s="1">
-        <v>57</v>
-      </c>
-      <c r="J354" s="1">
-        <v>51</v>
-      </c>
-      <c r="K354" s="1">
-        <v>42</v>
-      </c>
-      <c r="L354" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M354" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A355" s="1">
-        <v>3</v>
-      </c>
-      <c r="B355" s="1">
-        <v>32</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E355" s="1">
-        <v>61</v>
-      </c>
-      <c r="F355" s="1">
-        <v>47</v>
-      </c>
-      <c r="G355" s="1">
-        <v>67</v>
-      </c>
-      <c r="H355" s="1">
-        <v>77</v>
-      </c>
-      <c r="I355" s="1">
-        <v>56</v>
-      </c>
-      <c r="J355" s="1">
-        <v>46</v>
-      </c>
-      <c r="K355" s="1">
-        <v>30</v>
-      </c>
-      <c r="L355" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M355" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A356" s="1">
-        <v>3</v>
-      </c>
-      <c r="B356" s="1">
-        <v>33</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E356" s="1">
-        <v>37</v>
-      </c>
-      <c r="F356" s="1">
-        <v>31</v>
-      </c>
-      <c r="G356" s="1">
-        <v>66</v>
-      </c>
-      <c r="H356" s="1">
-        <v>60</v>
-      </c>
-      <c r="I356" s="1">
-        <v>72</v>
-      </c>
-      <c r="J356" s="1">
-        <v>57</v>
-      </c>
-      <c r="K356" s="1">
-        <v>70</v>
-      </c>
-      <c r="L356" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M356" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A357" s="1">
-        <v>3</v>
-      </c>
-      <c r="B357" s="1">
-        <v>34</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E357" s="1">
-        <v>57</v>
-      </c>
-      <c r="F357" s="1">
-        <v>44</v>
-      </c>
-      <c r="G357" s="1">
-        <v>58</v>
-      </c>
-      <c r="H357" s="1">
-        <v>59</v>
-      </c>
-      <c r="I357" s="1">
-        <v>59</v>
-      </c>
-      <c r="J357" s="1">
-        <v>76</v>
-      </c>
-      <c r="K357" s="1">
-        <v>55</v>
-      </c>
-      <c r="L357" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M357" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A358" s="1">
-        <v>3</v>
-      </c>
-      <c r="B358" s="1">
-        <v>35</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E358" s="1">
-        <v>55</v>
-      </c>
-      <c r="F358" s="1">
-        <v>49</v>
-      </c>
-      <c r="G358" s="1">
-        <v>47</v>
-      </c>
-      <c r="H358" s="1">
-        <v>84</v>
-      </c>
-      <c r="I358" s="1">
-        <v>67</v>
-      </c>
-      <c r="J358" s="1">
-        <v>56</v>
-      </c>
-      <c r="K358" s="1">
-        <v>31</v>
-      </c>
-      <c r="L358" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M358" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A359" s="1">
-        <v>3</v>
-      </c>
-      <c r="B359" s="1">
-        <v>36</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E359" s="1">
-        <v>48</v>
-      </c>
-      <c r="F359" s="1">
-        <v>29</v>
-      </c>
-      <c r="G359" s="1">
-        <v>36</v>
-      </c>
-      <c r="H359" s="1">
-        <v>44</v>
-      </c>
-      <c r="I359" s="1">
-        <v>55</v>
-      </c>
-      <c r="J359" s="1">
-        <v>45</v>
-      </c>
-      <c r="K359" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L359" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M359" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A360" s="1">
-        <v>3</v>
-      </c>
-      <c r="B360" s="1">
-        <v>37</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E360" s="1">
-        <v>47</v>
       </c>
       <c r="F360" s="1">
         <v>45</v>
       </c>
       <c r="G360" s="1">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H360" s="1">
+        <v>41</v>
+      </c>
+      <c r="I360" s="1">
+        <v>45</v>
+      </c>
+      <c r="J360" s="1">
+        <v>40</v>
+      </c>
+      <c r="K360" s="1">
+        <v>80</v>
+      </c>
+      <c r="L360" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M360" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>4</v>
+      </c>
+      <c r="B361" s="1">
+        <v>5</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E361" s="1">
+        <v>60</v>
+      </c>
+      <c r="F361" s="1">
+        <v>36</v>
+      </c>
+      <c r="G361" s="1">
+        <v>40</v>
+      </c>
+      <c r="H361" s="1">
+        <v>31</v>
+      </c>
+      <c r="I361" s="1">
+        <v>45</v>
+      </c>
+      <c r="J361" s="1">
+        <v>45</v>
+      </c>
+      <c r="K361" s="1">
+        <v>45</v>
+      </c>
+      <c r="L361" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M361" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>4</v>
+      </c>
+      <c r="B362" s="1">
+        <v>6</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E362" s="1">
+        <v>95</v>
+      </c>
+      <c r="F362" s="1">
+        <v>70</v>
+      </c>
+      <c r="G362" s="1">
+        <v>80</v>
+      </c>
+      <c r="H362" s="1">
+        <v>75</v>
+      </c>
+      <c r="I362" s="1">
+        <v>95</v>
+      </c>
+      <c r="J362" s="1">
+        <v>95</v>
+      </c>
+      <c r="K362" s="1">
+        <v>68</v>
+      </c>
+      <c r="L362" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M362" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>4</v>
+      </c>
+      <c r="B363" s="1">
+        <v>7</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E363" s="1">
+        <v>75</v>
+      </c>
+      <c r="F363" s="1">
+        <v>55</v>
+      </c>
+      <c r="G363" s="1">
+        <v>69</v>
+      </c>
+      <c r="H363" s="1">
+        <v>73</v>
+      </c>
+      <c r="I363" s="1">
+        <v>83</v>
+      </c>
+      <c r="J363" s="1">
+        <v>83</v>
+      </c>
+      <c r="K363" s="1">
         <v>63</v>
       </c>
-      <c r="I360" s="1">
-        <v>48</v>
-      </c>
-      <c r="J360" s="1">
-        <v>51</v>
-      </c>
-      <c r="K360" s="1">
-        <v>37</v>
-      </c>
-      <c r="L360" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M360" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A361" s="1">
-        <v>3</v>
-      </c>
-      <c r="B361" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A362" s="1">
-        <v>3</v>
-      </c>
-      <c r="B362" s="1">
-        <v>39</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E362" s="1">
-        <v>51</v>
-      </c>
-      <c r="F362" s="1">
-        <v>43</v>
-      </c>
-      <c r="G362" s="1">
-        <v>10</v>
-      </c>
-      <c r="H362" s="1">
-        <v>79</v>
-      </c>
-      <c r="I362" s="1">
+      <c r="L363" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M363" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>4</v>
+      </c>
+      <c r="B364" s="1">
+        <v>8</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E364" s="1">
+        <v>60</v>
+      </c>
+      <c r="F364" s="1">
+        <v>50</v>
+      </c>
+      <c r="G364" s="1">
+        <v>41</v>
+      </c>
+      <c r="H364" s="1">
+        <v>59</v>
+      </c>
+      <c r="I364" s="1">
+        <v>59</v>
+      </c>
+      <c r="J364" s="1">
         <v>55</v>
       </c>
-      <c r="J362" s="1">
-        <v>60</v>
-      </c>
-      <c r="K362" s="1">
-        <v>37</v>
-      </c>
-      <c r="L362" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M362" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A363" s="1">
-        <v>3</v>
-      </c>
-      <c r="B363" s="1">
+      <c r="K364" s="1">
+        <v>55</v>
+      </c>
+      <c r="L364" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M364" s="1">
+        <v>70</v>
+      </c>
+      <c r="N364" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>4</v>
+      </c>
+      <c r="B365" s="1">
+        <v>9</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E365" s="1">
+        <v>65</v>
+      </c>
+      <c r="F365" s="1">
         <v>40</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E363" s="1">
-        <v>50</v>
-      </c>
-      <c r="F363" s="1">
-        <v>35</v>
-      </c>
-      <c r="G363" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H363" s="1">
-        <v>39</v>
-      </c>
-      <c r="I363" s="1">
-        <v>58</v>
-      </c>
-      <c r="J363" s="1">
-        <v>43</v>
-      </c>
-      <c r="K363" s="1">
-        <v>41</v>
-      </c>
-      <c r="L363" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M363" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A364" s="1">
-        <v>3</v>
-      </c>
-      <c r="B364" s="1">
-        <v>41</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E364" s="1">
-        <v>52</v>
-      </c>
-      <c r="F364" s="1">
-        <v>25</v>
-      </c>
-      <c r="G364" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H364" s="1">
-        <v>37</v>
-      </c>
-      <c r="I364" s="1">
-        <v>47</v>
-      </c>
-      <c r="J364" s="1">
-        <v>41</v>
-      </c>
-      <c r="K364" s="1">
-        <v>31</v>
-      </c>
-      <c r="L364" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M364" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A365" s="1">
-        <v>3</v>
-      </c>
-      <c r="B365" s="1">
-        <v>42</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E365" s="1">
-        <v>62</v>
-      </c>
-      <c r="F365" s="1">
-        <v>55</v>
       </c>
       <c r="G365" s="1">
         <v>36</v>
       </c>
       <c r="H365" s="1">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I365" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J365" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K365" s="1">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="L365" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M365" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B366" s="1">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="E366" s="1">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F366" s="1">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G366" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H366" s="1">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I366" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J366" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K366" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L366" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M366" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B367" s="1">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="E367" s="1">
+        <v>75</v>
+      </c>
+      <c r="F367" s="1">
         <v>52</v>
       </c>
-      <c r="F367" s="1">
-        <v>36</v>
-      </c>
       <c r="G367" s="1">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H367" s="1">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I367" s="1">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="J367" s="1">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="K367" s="1">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="L367" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M367" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A368" s="1">
-        <v>3</v>
-      </c>
-      <c r="B368" s="1">
-        <v>45</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E368" s="1">
         <v>66</v>
       </c>
-      <c r="F368" s="1">
-        <v>31</v>
-      </c>
-      <c r="G368" s="1">
-        <v>36</v>
-      </c>
-      <c r="H368" s="1">
-        <v>50</v>
-      </c>
-      <c r="I368" s="1">
-        <v>85</v>
-      </c>
-      <c r="J368" s="1">
-        <v>56</v>
-      </c>
-      <c r="K368" s="1">
-        <v>37</v>
-      </c>
-      <c r="L368" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M368" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A369" s="1">
-        <v>3</v>
-      </c>
-      <c r="B369" s="1">
-        <v>46</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E369" s="1">
-        <v>52</v>
-      </c>
-      <c r="F369" s="1">
-        <v>28</v>
-      </c>
-      <c r="G369" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H369" s="1">
-        <v>32</v>
-      </c>
-      <c r="I369" s="1">
-        <v>53</v>
-      </c>
-      <c r="J369" s="1">
-        <v>45</v>
-      </c>
-      <c r="K369" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L369" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M369" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A368" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A369" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A370" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="B370" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A373" s="1">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A371" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A372" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A373" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <v>2</v>
+      </c>
+      <c r="B374" s="1">
+        <v>1</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E374" s="1">
+        <v>78</v>
+      </c>
+      <c r="F374" s="1">
+        <v>55</v>
+      </c>
+      <c r="G374" s="1">
+        <v>75</v>
+      </c>
+      <c r="H374" s="1">
+        <v>65</v>
+      </c>
+      <c r="I374" s="1">
+        <v>84</v>
+      </c>
+      <c r="J374" s="1">
+        <v>89</v>
+      </c>
+      <c r="K374" s="1">
+        <v>43</v>
+      </c>
+      <c r="L374" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M374" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>2</v>
+      </c>
+      <c r="B375" s="1">
+        <v>2</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E375" s="1">
+        <v>43</v>
+      </c>
+      <c r="F375" s="1">
+        <v>30</v>
+      </c>
+      <c r="G375" s="1">
+        <v>76</v>
+      </c>
+      <c r="H375" s="1">
+        <v>63</v>
+      </c>
+      <c r="I375" s="1">
+        <v>70</v>
+      </c>
+      <c r="J375" s="1">
+        <v>50</v>
+      </c>
+      <c r="K375" s="1">
+        <v>31</v>
+      </c>
+      <c r="L375" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M375" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>2</v>
+      </c>
+      <c r="B376" s="1">
+        <v>3</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E376" s="1">
+        <v>48</v>
+      </c>
+      <c r="F376" s="1">
+        <v>39</v>
+      </c>
+      <c r="G376" s="1">
+        <v>70</v>
+      </c>
+      <c r="H376" s="1">
+        <v>66</v>
+      </c>
+      <c r="I376" s="1">
+        <v>61</v>
+      </c>
+      <c r="J376" s="1">
+        <v>71</v>
+      </c>
+      <c r="K376" s="1">
+        <v>38</v>
+      </c>
+      <c r="L376" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M376" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>2</v>
+      </c>
+      <c r="B377" s="1">
         <v>4</v>
       </c>
-      <c r="B373" s="1">
-        <v>1</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E373" s="1">
-        <v>70</v>
-      </c>
-      <c r="F373" s="1">
-        <v>50</v>
-      </c>
-      <c r="G373" s="1">
+      <c r="C377" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E377" s="1">
+        <v>58</v>
+      </c>
+      <c r="F377" s="1">
+        <v>37</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H377" s="1">
+        <v>52</v>
+      </c>
+      <c r="I377" s="1">
+        <v>59</v>
+      </c>
+      <c r="J377" s="1">
+        <v>54</v>
+      </c>
+      <c r="K377" s="1">
+        <v>68</v>
+      </c>
+      <c r="L377" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M377" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>2</v>
+      </c>
+      <c r="B378" s="1">
+        <v>5</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E378" s="1">
+        <v>63</v>
+      </c>
+      <c r="F378" s="1">
+        <v>45</v>
+      </c>
+      <c r="G378" s="1">
+        <v>84</v>
+      </c>
+      <c r="H378" s="1">
+        <v>72</v>
+      </c>
+      <c r="I378" s="1">
+        <v>77</v>
+      </c>
+      <c r="J378" s="1">
         <v>65</v>
       </c>
-      <c r="H373" s="1">
-        <v>75</v>
-      </c>
-      <c r="I373" s="1">
-        <v>80</v>
-      </c>
-      <c r="J373" s="1">
-        <v>88</v>
-      </c>
-      <c r="K373" s="1">
-        <v>80</v>
-      </c>
-      <c r="L373" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M373" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A374" s="1">
-        <v>4</v>
-      </c>
-      <c r="B374" s="1">
+      <c r="K378" s="1">
+        <v>66</v>
+      </c>
+      <c r="L378" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M378" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
         <v>2</v>
       </c>
-      <c r="C374" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E374" s="1">
-        <v>76</v>
-      </c>
-      <c r="F374" s="1">
-        <v>59</v>
-      </c>
-      <c r="G374" s="1">
+      <c r="B379" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <v>2</v>
+      </c>
+      <c r="B380" s="1">
+        <v>7</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E380" s="1">
+        <v>48</v>
+      </c>
+      <c r="F380" s="1">
+        <v>30</v>
+      </c>
+      <c r="G380" s="1">
+        <v>64</v>
+      </c>
+      <c r="H380" s="1">
+        <v>67</v>
+      </c>
+      <c r="I380" s="1">
+        <v>60</v>
+      </c>
+      <c r="J380" s="1">
+        <v>53</v>
+      </c>
+      <c r="K380" s="1">
+        <v>58</v>
+      </c>
+      <c r="L380" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M380" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
+        <v>2</v>
+      </c>
+      <c r="B381" s="1">
+        <v>8</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E381" s="1">
         <v>68</v>
       </c>
-      <c r="H374" s="1">
-        <v>49</v>
-      </c>
-      <c r="I374" s="1">
-        <v>88</v>
-      </c>
-      <c r="J374" s="1">
-        <v>78</v>
-      </c>
-      <c r="K374" s="1">
+      <c r="F381" s="1">
+        <v>35</v>
+      </c>
+      <c r="G381" s="1">
+        <v>64</v>
+      </c>
+      <c r="H381" s="1">
+        <v>30</v>
+      </c>
+      <c r="I381" s="1">
+        <v>58</v>
+      </c>
+      <c r="J381" s="1">
+        <v>66</v>
+      </c>
+      <c r="K381" s="1">
         <v>48</v>
       </c>
-      <c r="L374" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M374" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A375" s="1">
-        <v>4</v>
-      </c>
-      <c r="B375" s="1">
-        <v>3</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E375" s="1">
-        <v>70</v>
-      </c>
-      <c r="F375" s="1">
-        <v>36</v>
-      </c>
-      <c r="G375" s="1">
-        <v>50</v>
-      </c>
-      <c r="H375" s="1">
-        <v>48</v>
-      </c>
-      <c r="I375" s="1">
+      <c r="L381" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M381" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
+        <v>2</v>
+      </c>
+      <c r="B382" s="1">
+        <v>9</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E382" s="1">
+        <v>38</v>
+      </c>
+      <c r="F382" s="1">
+        <v>32</v>
+      </c>
+      <c r="G382" s="1">
+        <v>60</v>
+      </c>
+      <c r="H382" s="1">
         <v>34</v>
-      </c>
-      <c r="J375" s="1">
-        <v>51</v>
-      </c>
-      <c r="K375" s="1">
-        <v>30</v>
-      </c>
-      <c r="L375" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M375" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A376" s="1">
-        <v>4</v>
-      </c>
-      <c r="B376" s="1">
-        <v>4</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E376" s="1">
-        <v>60</v>
-      </c>
-      <c r="F376" s="1">
-        <v>45</v>
-      </c>
-      <c r="G376" s="1">
-        <v>53</v>
-      </c>
-      <c r="H376" s="1">
-        <v>41</v>
-      </c>
-      <c r="I376" s="1">
-        <v>45</v>
-      </c>
-      <c r="J376" s="1">
-        <v>40</v>
-      </c>
-      <c r="K376" s="1">
-        <v>80</v>
-      </c>
-      <c r="L376" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M376" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A377" s="1">
-        <v>4</v>
-      </c>
-      <c r="B377" s="1">
-        <v>5</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E377" s="1">
-        <v>60</v>
-      </c>
-      <c r="F377" s="1">
-        <v>36</v>
-      </c>
-      <c r="G377" s="1">
-        <v>40</v>
-      </c>
-      <c r="H377" s="1">
-        <v>31</v>
-      </c>
-      <c r="I377" s="1">
-        <v>45</v>
-      </c>
-      <c r="J377" s="1">
-        <v>45</v>
-      </c>
-      <c r="K377" s="1">
-        <v>45</v>
-      </c>
-      <c r="L377" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M377" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A378" s="1">
-        <v>4</v>
-      </c>
-      <c r="B378" s="1">
-        <v>6</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E378" s="1">
-        <v>95</v>
-      </c>
-      <c r="F378" s="1">
-        <v>70</v>
-      </c>
-      <c r="G378" s="1">
-        <v>80</v>
-      </c>
-      <c r="H378" s="1">
-        <v>75</v>
-      </c>
-      <c r="I378" s="1">
-        <v>95</v>
-      </c>
-      <c r="J378" s="1">
-        <v>95</v>
-      </c>
-      <c r="K378" s="1">
-        <v>68</v>
-      </c>
-      <c r="L378" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M378" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A379" s="1">
-        <v>4</v>
-      </c>
-      <c r="B379" s="1">
-        <v>7</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E379" s="1">
-        <v>75</v>
-      </c>
-      <c r="F379" s="1">
-        <v>55</v>
-      </c>
-      <c r="G379" s="1">
-        <v>69</v>
-      </c>
-      <c r="H379" s="1">
-        <v>73</v>
-      </c>
-      <c r="I379" s="1">
-        <v>83</v>
-      </c>
-      <c r="J379" s="1">
-        <v>83</v>
-      </c>
-      <c r="K379" s="1">
-        <v>63</v>
-      </c>
-      <c r="L379" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M379" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A380" s="1">
-        <v>4</v>
-      </c>
-      <c r="B380" s="1">
-        <v>8</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E380" s="1">
-        <v>60</v>
-      </c>
-      <c r="F380" s="1">
-        <v>50</v>
-      </c>
-      <c r="G380" s="1">
-        <v>41</v>
-      </c>
-      <c r="H380" s="1">
-        <v>59</v>
-      </c>
-      <c r="I380" s="1">
-        <v>59</v>
-      </c>
-      <c r="J380" s="1">
-        <v>55</v>
-      </c>
-      <c r="K380" s="1">
-        <v>55</v>
-      </c>
-      <c r="L380" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M380" s="1">
-        <v>70</v>
-      </c>
-      <c r="N380" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A381" s="1">
-        <v>4</v>
-      </c>
-      <c r="B381" s="1">
-        <v>9</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E381" s="1">
-        <v>65</v>
-      </c>
-      <c r="F381" s="1">
-        <v>40</v>
-      </c>
-      <c r="G381" s="1">
-        <v>36</v>
-      </c>
-      <c r="H381" s="1">
-        <v>35</v>
-      </c>
-      <c r="I381" s="1">
-        <v>72</v>
-      </c>
-      <c r="J381" s="1">
-        <v>63</v>
-      </c>
-      <c r="K381" s="1">
-        <v>45</v>
-      </c>
-      <c r="L381" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M381" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A382" s="1">
-        <v>4</v>
-      </c>
-      <c r="B382" s="1">
-        <v>10</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E382" s="1">
-        <v>65</v>
-      </c>
-      <c r="F382" s="1">
-        <v>30</v>
-      </c>
-      <c r="G382" s="1">
-        <v>45</v>
-      </c>
-      <c r="H382" s="1">
-        <v>54</v>
       </c>
       <c r="I382" s="1">
         <v>66</v>
       </c>
       <c r="J382" s="1">
+        <v>50</v>
+      </c>
+      <c r="K382" s="1">
+        <v>51</v>
+      </c>
+      <c r="L382" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M382" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
+        <v>2</v>
+      </c>
+      <c r="B383" s="1">
+        <v>10</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E383" s="1">
+        <v>53</v>
+      </c>
+      <c r="F383" s="1">
+        <v>41</v>
+      </c>
+      <c r="G383" s="1">
+        <v>41</v>
+      </c>
+      <c r="H383" s="1">
+        <v>67</v>
+      </c>
+      <c r="I383" s="1">
+        <v>60</v>
+      </c>
+      <c r="J383" s="1">
+        <v>68</v>
+      </c>
+      <c r="K383" s="1">
+        <v>51</v>
+      </c>
+      <c r="L383" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M383" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
+        <v>2</v>
+      </c>
+      <c r="B384" s="1">
+        <v>11</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E384" s="1">
+        <v>53</v>
+      </c>
+      <c r="F384" s="1">
+        <v>35</v>
+      </c>
+      <c r="G384" s="1">
+        <v>64</v>
+      </c>
+      <c r="H384" s="1">
+        <v>70</v>
+      </c>
+      <c r="I384" s="1">
+        <v>53</v>
+      </c>
+      <c r="J384" s="1">
+        <v>66</v>
+      </c>
+      <c r="K384" s="1">
+        <v>44</v>
+      </c>
+      <c r="L384" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M384" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
+        <v>2</v>
+      </c>
+      <c r="B385" s="1">
+        <v>12</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E385" s="1">
+        <v>30</v>
+      </c>
+      <c r="F385" s="1">
+        <v>51</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H385" s="1">
+        <v>90</v>
+      </c>
+      <c r="I385" s="1">
+        <v>79</v>
+      </c>
+      <c r="J385" s="1">
+        <v>88</v>
+      </c>
+      <c r="K385" s="1">
+        <v>48</v>
+      </c>
+      <c r="L385" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M385" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
+        <v>2</v>
+      </c>
+      <c r="B386" s="1">
+        <v>13</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E386" s="1">
+        <v>53</v>
+      </c>
+      <c r="F386" s="1">
+        <v>47</v>
+      </c>
+      <c r="G386" s="1">
+        <v>76</v>
+      </c>
+      <c r="H386" s="1">
+        <v>88</v>
+      </c>
+      <c r="I386" s="1">
+        <v>87</v>
+      </c>
+      <c r="J386" s="1">
+        <v>56</v>
+      </c>
+      <c r="K386" s="1">
+        <v>41</v>
+      </c>
+      <c r="L386" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M386" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
+        <v>2</v>
+      </c>
+      <c r="B387" s="1">
+        <v>14</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E387" s="1">
+        <v>48</v>
+      </c>
+      <c r="F387" s="1">
+        <v>58</v>
+      </c>
+      <c r="G387" s="1">
+        <v>62</v>
+      </c>
+      <c r="H387" s="1">
+        <v>74</v>
+      </c>
+      <c r="I387" s="1">
+        <v>86</v>
+      </c>
+      <c r="J387" s="1">
+        <v>87</v>
+      </c>
+      <c r="K387" s="1">
+        <v>38</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M387" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
+        <v>2</v>
+      </c>
+      <c r="B388" s="1">
+        <v>15</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E388" s="1">
+        <v>38</v>
+      </c>
+      <c r="F388" s="1">
+        <v>34</v>
+      </c>
+      <c r="G388" s="1">
+        <v>64</v>
+      </c>
+      <c r="H388" s="1">
+        <v>68</v>
+      </c>
+      <c r="I388" s="1">
+        <v>57</v>
+      </c>
+      <c r="J388" s="1">
+        <v>74</v>
+      </c>
+      <c r="K388" s="1">
+        <v>38</v>
+      </c>
+      <c r="L388" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M388" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
+        <v>2</v>
+      </c>
+      <c r="B389" s="1">
+        <v>16</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E389" s="1">
+        <v>48</v>
+      </c>
+      <c r="F389" s="1">
+        <v>47</v>
+      </c>
+      <c r="G389" s="1">
         <v>72</v>
       </c>
-      <c r="K382" s="1">
-        <v>38</v>
-      </c>
-      <c r="L382" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M382" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A383" s="1">
-        <v>4</v>
-      </c>
-      <c r="B383" s="1">
-        <v>11</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E383" s="1">
-        <v>75</v>
-      </c>
-      <c r="F383" s="1">
-        <v>52</v>
-      </c>
-      <c r="G383" s="1">
-        <v>65</v>
-      </c>
-      <c r="H383" s="1">
-        <v>63</v>
-      </c>
-      <c r="I383" s="1">
-        <v>83</v>
-      </c>
-      <c r="J383" s="1">
-        <v>84</v>
-      </c>
-      <c r="K383" s="1">
-        <v>75</v>
-      </c>
-      <c r="L383" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M383" s="1">
+      <c r="H389" s="1">
+        <v>64</v>
+      </c>
+      <c r="I389" s="1">
+        <v>71</v>
+      </c>
+      <c r="J389" s="1">
+        <v>47</v>
+      </c>
+      <c r="K389" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A384" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A385" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A386" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A387" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A388" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A389" s="1" t="s">
-        <v>272</v>
+      <c r="L389" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M389" s="1">
+        <v>55</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.35">
@@ -15030,31 +15522,31 @@
         <v>2</v>
       </c>
       <c r="B390" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="E390" s="1">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F390" s="1">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G390" s="1">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H390" s="1">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I390" s="1">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="J390" s="1">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="K390" s="1">
         <v>43</v>
@@ -15063,7 +15555,7 @@
         <v>15</v>
       </c>
       <c r="M390" s="1">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.35">
@@ -15071,40 +15563,40 @@
         <v>2</v>
       </c>
       <c r="B391" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>519</v>
+        <v>162</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="E391" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F391" s="1">
+        <v>20</v>
+      </c>
+      <c r="G391" s="1">
+        <v>58</v>
+      </c>
+      <c r="H391" s="1">
         <v>30</v>
       </c>
-      <c r="G391" s="1">
-        <v>76</v>
-      </c>
-      <c r="H391" s="1">
-        <v>63</v>
-      </c>
       <c r="I391" s="1">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J391" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K391" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L391" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M391" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.35">
@@ -15112,40 +15604,40 @@
         <v>2</v>
       </c>
       <c r="B392" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>529</v>
+        <v>110</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>530</v>
+        <v>368</v>
       </c>
       <c r="E392" s="1">
         <v>48</v>
       </c>
       <c r="F392" s="1">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G392" s="1">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H392" s="1">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I392" s="1">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="J392" s="1">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="K392" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L392" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M392" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.35">
@@ -15153,34 +15645,34 @@
         <v>2</v>
       </c>
       <c r="B393" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>509</v>
+        <v>433</v>
       </c>
       <c r="E393" s="1">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F393" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G393" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H393" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I393" s="1">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J393" s="1">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K393" s="1">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="L393" s="1" t="s">
         <v>15</v>
@@ -15194,40 +15686,40 @@
         <v>2</v>
       </c>
       <c r="B394" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="E394" s="1">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F394" s="1">
-        <v>45</v>
-      </c>
-      <c r="G394" s="1">
-        <v>84</v>
+        <v>31</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H394" s="1">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I394" s="1">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="J394" s="1">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="K394" s="1">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="L394" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M394" s="1">
-        <v>42</v>
+      <c r="M394" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.35">
@@ -15235,7 +15727,40 @@
         <v>2</v>
       </c>
       <c r="B395" s="1">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E395" s="1">
+        <v>58</v>
+      </c>
+      <c r="F395" s="1">
+        <v>94</v>
+      </c>
+      <c r="G395" s="1">
+        <v>61</v>
+      </c>
+      <c r="H395" s="1">
+        <v>94</v>
+      </c>
+      <c r="I395" s="1">
+        <v>87</v>
+      </c>
+      <c r="J395" s="1">
+        <v>88</v>
+      </c>
+      <c r="K395" s="1">
+        <v>56</v>
+      </c>
+      <c r="L395" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M395" s="1">
+        <v>91</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.35">
@@ -15243,40 +15768,40 @@
         <v>2</v>
       </c>
       <c r="B396" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>368</v>
+        <v>497</v>
       </c>
       <c r="E396" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F396" s="1">
-        <v>30</v>
-      </c>
-      <c r="G396" s="1">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H396" s="1">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I396" s="1">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J396" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K396" s="1">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="L396" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M396" s="1">
-        <v>31</v>
+      <c r="M396" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.35">
@@ -15284,40 +15809,40 @@
         <v>2</v>
       </c>
       <c r="B397" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>74</v>
+        <v>531</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>522</v>
+        <v>259</v>
       </c>
       <c r="E397" s="1">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F397" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G397" s="1">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H397" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I397" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J397" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K397" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L397" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M397" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.35">
@@ -15325,40 +15850,40 @@
         <v>2</v>
       </c>
       <c r="B398" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="E398" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F398" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G398" s="1">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H398" s="1">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="I398" s="1">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J398" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K398" s="1">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L398" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M398" s="1">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.35">
@@ -15366,40 +15891,40 @@
         <v>2</v>
       </c>
       <c r="B399" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>526</v>
+        <v>283</v>
       </c>
       <c r="E399" s="1">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F399" s="1">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G399" s="1">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H399" s="1">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I399" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J399" s="1">
+        <v>48</v>
+      </c>
+      <c r="K399" s="1">
         <v>68</v>
       </c>
-      <c r="K399" s="1">
-        <v>51</v>
-      </c>
       <c r="L399" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M399" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.35">
@@ -15407,40 +15932,40 @@
         <v>2</v>
       </c>
       <c r="B400" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>312</v>
+        <v>504</v>
       </c>
       <c r="E400" s="1">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F400" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G400" s="1">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H400" s="1">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I400" s="1">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J400" s="1">
         <v>66</v>
       </c>
       <c r="K400" s="1">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L400" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M400" s="1">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.35">
@@ -15448,40 +15973,40 @@
         <v>2</v>
       </c>
       <c r="B401" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="E401" s="1">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F401" s="1">
-        <v>51</v>
-      </c>
-      <c r="G401" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="G401" s="1">
+        <v>58</v>
       </c>
       <c r="H401" s="1">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I401" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J401" s="1">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="K401" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="L401" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M401" s="1" t="s">
-        <v>15</v>
+      <c r="M401" s="1">
+        <v>87</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.35">
@@ -15489,40 +16014,37 @@
         <v>2</v>
       </c>
       <c r="B402" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="E402" s="1">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F402" s="1">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G402" s="1">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H402" s="1">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I402" s="1">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J402" s="1">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K402" s="1">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L402" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M402" s="1">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.35">
@@ -15530,40 +16052,40 @@
         <v>2</v>
       </c>
       <c r="B403" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>291</v>
+        <v>514</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>356</v>
+        <v>515</v>
       </c>
       <c r="E403" s="1">
         <v>48</v>
       </c>
       <c r="F403" s="1">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G403" s="1">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H403" s="1">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I403" s="1">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="J403" s="1">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K403" s="1">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="L403" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M403" s="1">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.35">
@@ -15571,37 +16093,40 @@
         <v>2</v>
       </c>
       <c r="B404" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>524</v>
+        <v>501</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="E404" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F404" s="1">
+        <v>23</v>
+      </c>
+      <c r="G404" s="1">
+        <v>32</v>
+      </c>
+      <c r="H404" s="1">
         <v>34</v>
       </c>
-      <c r="G404" s="1">
-        <v>64</v>
-      </c>
-      <c r="H404" s="1">
-        <v>68</v>
-      </c>
       <c r="I404" s="1">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J404" s="1">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="K404" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L404" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M404" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.35">
@@ -15609,40 +16134,40 @@
         <v>2</v>
       </c>
       <c r="B405" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>382</v>
+        <v>543</v>
       </c>
       <c r="E405" s="1">
         <v>48</v>
       </c>
       <c r="F405" s="1">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="G405" s="1">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H405" s="1">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="I405" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J405" s="1">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K405" s="1">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L405" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M405" s="1">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.35">
@@ -15650,40 +16175,40 @@
         <v>2</v>
       </c>
       <c r="B406" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>513</v>
+        <v>329</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>378</v>
+        <v>504</v>
       </c>
       <c r="E406" s="1">
+        <v>53</v>
+      </c>
+      <c r="F406" s="1">
+        <v>24</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H406" s="1">
+        <v>37</v>
+      </c>
+      <c r="I406" s="1">
+        <v>39</v>
+      </c>
+      <c r="J406" s="1">
+        <v>31</v>
+      </c>
+      <c r="K406" s="1">
         <v>48</v>
       </c>
-      <c r="F406" s="1">
-        <v>30</v>
-      </c>
-      <c r="G406" s="1">
-        <v>54</v>
-      </c>
-      <c r="H406" s="1">
-        <v>44</v>
-      </c>
-      <c r="I406" s="1">
-        <v>44</v>
-      </c>
-      <c r="J406" s="1">
-        <v>54</v>
-      </c>
-      <c r="K406" s="1">
-        <v>43</v>
-      </c>
       <c r="L406" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M406" s="1">
-        <v>30</v>
+      <c r="M406" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.35">
@@ -15691,40 +16216,40 @@
         <v>2</v>
       </c>
       <c r="B407" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>162</v>
+        <v>370</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E407" s="1">
+        <v>505</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F407" s="1">
+        <v>30</v>
+      </c>
+      <c r="G407" s="1">
+        <v>63</v>
+      </c>
+      <c r="H407" s="1">
+        <v>33</v>
+      </c>
+      <c r="I407" s="1">
         <v>48</v>
       </c>
-      <c r="F407" s="1">
-        <v>20</v>
-      </c>
-      <c r="G407" s="1">
-        <v>58</v>
-      </c>
-      <c r="H407" s="1">
-        <v>30</v>
-      </c>
-      <c r="I407" s="1">
-        <v>42</v>
-      </c>
       <c r="J407" s="1">
-        <v>47</v>
-      </c>
-      <c r="K407" s="1">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="K407" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="L407" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M407" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.35">
@@ -15732,40 +16257,40 @@
         <v>2</v>
       </c>
       <c r="B408" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>110</v>
+        <v>511</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>368</v>
+        <v>512</v>
       </c>
       <c r="E408" s="1">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F408" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G408" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H408" s="1">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I408" s="1">
         <v>37</v>
       </c>
       <c r="J408" s="1">
+        <v>65</v>
+      </c>
+      <c r="K408" s="1">
+        <v>43</v>
+      </c>
+      <c r="L408" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M408" s="1">
         <v>30</v>
-      </c>
-      <c r="K408" s="1">
-        <v>32</v>
-      </c>
-      <c r="L408" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M408" s="1">
-        <v>21</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.35">
@@ -15773,40 +16298,7 @@
         <v>2</v>
       </c>
       <c r="B409" s="1">
-        <v>20</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E409" s="1">
-        <v>53</v>
-      </c>
-      <c r="F409" s="1">
         <v>36</v>
-      </c>
-      <c r="G409" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H409" s="1">
-        <v>53</v>
-      </c>
-      <c r="I409" s="1">
-        <v>48</v>
-      </c>
-      <c r="J409" s="1">
-        <v>42</v>
-      </c>
-      <c r="K409" s="1">
-        <v>39</v>
-      </c>
-      <c r="L409" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M409" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.35">
@@ -15814,34 +16306,34 @@
         <v>2</v>
       </c>
       <c r="B410" s="1">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>362</v>
+        <v>495</v>
       </c>
       <c r="E410" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F410" s="1">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G410" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H410" s="1">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I410" s="1">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="J410" s="1">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K410" s="1">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="L410" s="1" t="s">
         <v>15</v>
@@ -15855,40 +16347,40 @@
         <v>2</v>
       </c>
       <c r="B411" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="E411" s="1">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F411" s="1">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G411" s="1">
         <v>61</v>
       </c>
       <c r="H411" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I411" s="1">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J411" s="1">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K411" s="1">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L411" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M411" s="1">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.35">
@@ -15896,40 +16388,40 @@
         <v>2</v>
       </c>
       <c r="B412" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>496</v>
+        <v>246</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="E412" s="1">
+        <v>33</v>
+      </c>
+      <c r="F412" s="1">
+        <v>31</v>
+      </c>
+      <c r="G412" s="1">
         <v>50</v>
       </c>
-      <c r="F412" s="1">
-        <v>32</v>
-      </c>
-      <c r="G412" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H412" s="1">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I412" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J412" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K412" s="1">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L412" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M412" s="1" t="s">
-        <v>15</v>
+      <c r="M412" s="1">
+        <v>41</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.35">
@@ -15937,676 +16429,232 @@
         <v>2</v>
       </c>
       <c r="B413" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>531</v>
+        <v>312</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>259</v>
+        <v>540</v>
       </c>
       <c r="E413" s="1">
         <v>53</v>
       </c>
       <c r="F413" s="1">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="G413" s="1">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H413" s="1">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I413" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J413" s="1">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K413" s="1">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L413" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M413" s="1">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A414" s="1">
+      <c r="A414" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A415" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A417" s="1">
+        <v>1</v>
+      </c>
+      <c r="B417" s="1">
+        <v>1</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A418" s="1">
+        <v>1</v>
+      </c>
+      <c r="B418" s="1">
         <v>2</v>
       </c>
-      <c r="B414" s="1">
-        <v>25</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E414" s="1">
-        <v>48</v>
-      </c>
-      <c r="F414" s="1">
-        <v>54</v>
-      </c>
-      <c r="G414" s="1">
-        <v>52</v>
-      </c>
-      <c r="H414" s="1">
-        <v>90</v>
-      </c>
-      <c r="I414" s="1">
-        <v>50</v>
-      </c>
-      <c r="J414" s="1">
-        <v>48</v>
-      </c>
-      <c r="K414" s="1">
-        <v>43</v>
-      </c>
-      <c r="L414" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M414" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A415" s="1">
-        <v>2</v>
-      </c>
-      <c r="B415" s="1">
-        <v>26</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E415" s="1">
-        <v>48</v>
-      </c>
-      <c r="F415" s="1">
-        <v>46</v>
-      </c>
-      <c r="G415" s="1">
-        <v>52</v>
-      </c>
-      <c r="H415" s="1">
-        <v>49</v>
-      </c>
-      <c r="I415" s="1">
-        <v>54</v>
-      </c>
-      <c r="J415" s="1">
-        <v>48</v>
-      </c>
-      <c r="K415" s="1">
-        <v>68</v>
-      </c>
-      <c r="L415" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M415" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A416" s="1">
-        <v>2</v>
-      </c>
-      <c r="B416" s="1">
-        <v>27</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D416" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E416" s="1">
-        <v>43</v>
-      </c>
-      <c r="F416" s="1">
-        <v>36</v>
-      </c>
-      <c r="G416" s="1">
-        <v>34</v>
-      </c>
-      <c r="H416" s="1">
-        <v>42</v>
-      </c>
-      <c r="I416" s="1">
-        <v>45</v>
-      </c>
-      <c r="J416" s="1">
-        <v>66</v>
-      </c>
-      <c r="K416" s="1">
-        <v>30</v>
-      </c>
-      <c r="L416" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M416" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A417" s="1">
-        <v>2</v>
-      </c>
-      <c r="B417" s="1">
-        <v>28</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E417" s="1">
-        <v>68</v>
-      </c>
-      <c r="F417" s="1">
-        <v>60</v>
-      </c>
-      <c r="G417" s="1">
-        <v>58</v>
-      </c>
-      <c r="H417" s="1">
-        <v>54</v>
-      </c>
-      <c r="I417" s="1">
-        <v>80</v>
-      </c>
-      <c r="J417" s="1">
-        <v>53</v>
-      </c>
-      <c r="K417" s="1">
-        <v>70</v>
-      </c>
-      <c r="L417" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M417" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A418" s="1">
-        <v>2</v>
-      </c>
-      <c r="B418" s="1">
-        <v>29</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E418" s="1">
-        <v>48</v>
-      </c>
-      <c r="F418" s="1">
-        <v>20</v>
-      </c>
-      <c r="G418" s="1">
-        <v>52</v>
-      </c>
-      <c r="H418" s="1">
-        <v>26</v>
-      </c>
-      <c r="I418" s="1">
-        <v>20</v>
-      </c>
-      <c r="J418" s="1">
-        <v>30</v>
-      </c>
-      <c r="K418" s="1">
-        <v>30</v>
-      </c>
       <c r="L418" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M418" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B419" s="1">
-        <v>30</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E419" s="1">
-        <v>48</v>
-      </c>
-      <c r="F419" s="1">
-        <v>30</v>
-      </c>
-      <c r="G419" s="1">
-        <v>50</v>
-      </c>
-      <c r="H419" s="1">
-        <v>49</v>
-      </c>
-      <c r="I419" s="1">
-        <v>39</v>
-      </c>
-      <c r="J419" s="1">
-        <v>47</v>
-      </c>
-      <c r="K419" s="1">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="L419" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M419" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B420" s="1">
-        <v>31</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E420" s="1">
-        <v>48</v>
-      </c>
-      <c r="F420" s="1">
-        <v>23</v>
-      </c>
-      <c r="G420" s="1">
-        <v>32</v>
-      </c>
-      <c r="H420" s="1">
-        <v>34</v>
-      </c>
-      <c r="I420" s="1">
-        <v>34</v>
-      </c>
-      <c r="J420" s="1">
-        <v>39</v>
-      </c>
-      <c r="K420" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="L420" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M420" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B421" s="1">
-        <v>32</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="E421" s="1">
-        <v>48</v>
-      </c>
-      <c r="F421" s="1">
-        <v>82</v>
-      </c>
-      <c r="G421" s="1">
-        <v>52</v>
-      </c>
-      <c r="H421" s="1">
-        <v>96</v>
-      </c>
-      <c r="I421" s="1">
-        <v>74</v>
-      </c>
-      <c r="J421" s="1">
-        <v>90</v>
-      </c>
-      <c r="K421" s="1">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="L421" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M421" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B422" s="1">
-        <v>33</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E422" s="1">
-        <v>53</v>
-      </c>
-      <c r="F422" s="1">
-        <v>24</v>
-      </c>
-      <c r="G422" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H422" s="1">
-        <v>37</v>
-      </c>
-      <c r="I422" s="1">
-        <v>39</v>
-      </c>
-      <c r="J422" s="1">
-        <v>31</v>
-      </c>
-      <c r="K422" s="1">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="L422" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M422" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B423" s="1">
-        <v>34</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E423" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F423" s="1">
-        <v>30</v>
-      </c>
-      <c r="G423" s="1">
-        <v>63</v>
-      </c>
-      <c r="H423" s="1">
-        <v>33</v>
-      </c>
-      <c r="I423" s="1">
-        <v>48</v>
-      </c>
-      <c r="J423" s="1">
-        <v>62</v>
-      </c>
-      <c r="K423" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L423" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M423" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B424" s="1">
-        <v>35</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E424" s="1">
-        <v>33</v>
-      </c>
-      <c r="F424" s="1">
-        <v>31</v>
-      </c>
-      <c r="G424" s="1">
-        <v>52</v>
-      </c>
-      <c r="H424" s="1">
-        <v>42</v>
-      </c>
-      <c r="I424" s="1">
-        <v>37</v>
-      </c>
-      <c r="J424" s="1">
-        <v>65</v>
-      </c>
-      <c r="K424" s="1">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="L424" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M424" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B425" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="L425" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B426" s="1">
-        <v>37</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E426" s="1">
-        <v>58</v>
-      </c>
-      <c r="F426" s="1">
-        <v>61</v>
-      </c>
-      <c r="G426" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H426" s="1">
-        <v>82</v>
-      </c>
-      <c r="I426" s="1">
-        <v>85</v>
-      </c>
-      <c r="J426" s="1">
-        <v>70</v>
-      </c>
-      <c r="K426" s="1">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="L426" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M426" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B427" s="1">
-        <v>38</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E427" s="1">
-        <v>48</v>
-      </c>
-      <c r="F427" s="1">
-        <v>44</v>
-      </c>
-      <c r="G427" s="1">
-        <v>61</v>
-      </c>
-      <c r="H427" s="1">
-        <v>92</v>
-      </c>
-      <c r="I427" s="1">
-        <v>69</v>
-      </c>
-      <c r="J427" s="1">
-        <v>73</v>
-      </c>
-      <c r="K427" s="1">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L427" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M427" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B428" s="1">
-        <v>39</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E428" s="1">
-        <v>33</v>
-      </c>
-      <c r="F428" s="1">
-        <v>31</v>
-      </c>
-      <c r="G428" s="1">
-        <v>50</v>
-      </c>
-      <c r="H428" s="1">
-        <v>71</v>
-      </c>
-      <c r="I428" s="1">
-        <v>43</v>
-      </c>
-      <c r="J428" s="1">
-        <v>66</v>
-      </c>
-      <c r="K428" s="1">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L428" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M428" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B429" s="1">
-        <v>40</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="E429" s="1">
-        <v>53</v>
-      </c>
-      <c r="F429" s="1">
-        <v>67</v>
-      </c>
-      <c r="G429" s="1">
-        <v>78</v>
-      </c>
-      <c r="H429" s="1">
-        <v>84</v>
-      </c>
-      <c r="I429" s="1">
-        <v>67</v>
-      </c>
-      <c r="J429" s="1">
-        <v>67</v>
-      </c>
-      <c r="K429" s="1">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="L429" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M429" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A430" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A431" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>272</v>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A430" s="1">
+        <v>1</v>
+      </c>
+      <c r="B430" s="1">
+        <v>14</v>
+      </c>
+      <c r="L430" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A431" s="1">
+        <v>1</v>
+      </c>
+      <c r="B431" s="1">
+        <v>15</v>
+      </c>
+      <c r="L431" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A432" s="1">
+        <v>1</v>
+      </c>
+      <c r="B432" s="1">
+        <v>16</v>
+      </c>
+      <c r="L432" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.35">
@@ -16614,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="B433" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L433" s="1" t="s">
         <v>15</v>
@@ -16625,7 +16673,7 @@
         <v>1</v>
       </c>
       <c r="B434" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L434" s="1" t="s">
         <v>15</v>
@@ -16636,7 +16684,7 @@
         <v>1</v>
       </c>
       <c r="B435" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L435" s="1" t="s">
         <v>15</v>
@@ -16647,7 +16695,7 @@
         <v>1</v>
       </c>
       <c r="B436" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L436" s="1" t="s">
         <v>15</v>
@@ -16658,7 +16706,7 @@
         <v>1</v>
       </c>
       <c r="B437" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L437" s="1" t="s">
         <v>15</v>
@@ -16669,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="B438" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L438" s="1" t="s">
         <v>15</v>
@@ -16680,7 +16728,7 @@
         <v>1</v>
       </c>
       <c r="B439" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="L439" s="1" t="s">
         <v>15</v>
@@ -16691,7 +16739,7 @@
         <v>1</v>
       </c>
       <c r="B440" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L440" s="1" t="s">
         <v>15</v>
@@ -16702,7 +16750,7 @@
         <v>1</v>
       </c>
       <c r="B441" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L441" s="1" t="s">
         <v>15</v>
@@ -16713,7 +16761,7 @@
         <v>1</v>
       </c>
       <c r="B442" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L442" s="1" t="s">
         <v>15</v>
@@ -16724,7 +16772,7 @@
         <v>1</v>
       </c>
       <c r="B443" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L443" s="1" t="s">
         <v>15</v>
@@ -16735,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="B444" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L444" s="1" t="s">
         <v>15</v>
@@ -16746,7 +16794,7 @@
         <v>1</v>
       </c>
       <c r="B445" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="L445" s="1" t="s">
         <v>15</v>
@@ -16757,7 +16805,7 @@
         <v>1</v>
       </c>
       <c r="B446" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L446" s="1" t="s">
         <v>15</v>
@@ -16768,7 +16816,7 @@
         <v>1</v>
       </c>
       <c r="B447" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L447" s="1" t="s">
         <v>15</v>
@@ -16779,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="B448" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L448" s="1" t="s">
         <v>15</v>
@@ -16790,7 +16838,7 @@
         <v>1</v>
       </c>
       <c r="B449" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L449" s="1" t="s">
         <v>15</v>
@@ -16801,7 +16849,7 @@
         <v>1</v>
       </c>
       <c r="B450" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L450" s="1" t="s">
         <v>15</v>
@@ -16812,7 +16860,7 @@
         <v>1</v>
       </c>
       <c r="B451" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L451" s="1" t="s">
         <v>15</v>
@@ -16823,7 +16871,7 @@
         <v>1</v>
       </c>
       <c r="B452" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L452" s="1" t="s">
         <v>15</v>
@@ -16834,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="B453" s="1">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L453" s="1" t="s">
         <v>15</v>
@@ -16845,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="B454" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L454" s="1" t="s">
         <v>15</v>
@@ -16856,7 +16904,7 @@
         <v>1</v>
       </c>
       <c r="B455" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L455" s="1" t="s">
         <v>15</v>
@@ -16867,7 +16915,7 @@
         <v>1</v>
       </c>
       <c r="B456" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L456" s="1" t="s">
         <v>15</v>
@@ -16878,7 +16926,7 @@
         <v>1</v>
       </c>
       <c r="B457" s="1">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="L457" s="1" t="s">
         <v>15</v>
@@ -16889,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="B458" s="1">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="L458" s="1" t="s">
         <v>15</v>
@@ -16900,7 +16948,7 @@
         <v>1</v>
       </c>
       <c r="B459" s="1">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L459" s="1" t="s">
         <v>15</v>
@@ -16911,7 +16959,7 @@
         <v>1</v>
       </c>
       <c r="B460" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L460" s="1" t="s">
         <v>15</v>
@@ -16922,7 +16970,7 @@
         <v>1</v>
       </c>
       <c r="B461" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="L461" s="1" t="s">
         <v>15</v>
@@ -16933,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="B462" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L462" s="1" t="s">
         <v>15</v>
@@ -16944,7 +16992,7 @@
         <v>1</v>
       </c>
       <c r="B463" s="1">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L463" s="1" t="s">
         <v>15</v>
@@ -16955,7 +17003,7 @@
         <v>1</v>
       </c>
       <c r="B464" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L464" s="1" t="s">
         <v>15</v>
@@ -16966,7 +17014,7 @@
         <v>1</v>
       </c>
       <c r="B465" s="1">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L465" s="1" t="s">
         <v>15</v>
@@ -16977,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="B466" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="L466" s="1" t="s">
         <v>15</v>
@@ -16988,7 +17036,7 @@
         <v>1</v>
       </c>
       <c r="B467" s="1">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L467" s="1" t="s">
         <v>15</v>
@@ -16999,7 +17047,7 @@
         <v>1</v>
       </c>
       <c r="B468" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="L468" s="1" t="s">
         <v>15</v>
@@ -17010,7 +17058,7 @@
         <v>1</v>
       </c>
       <c r="B469" s="1">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="L469" s="1" t="s">
         <v>15</v>
@@ -17021,7 +17069,7 @@
         <v>1</v>
       </c>
       <c r="B470" s="1">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L470" s="1" t="s">
         <v>15</v>
@@ -17032,7 +17080,7 @@
         <v>1</v>
       </c>
       <c r="B471" s="1">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="L471" s="1" t="s">
         <v>15</v>
@@ -17043,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="B472" s="1">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="L472" s="1" t="s">
         <v>15</v>
@@ -17054,7 +17102,7 @@
         <v>1</v>
       </c>
       <c r="B473" s="1">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="L473" s="1" t="s">
         <v>15</v>
@@ -17065,7 +17113,7 @@
         <v>1</v>
       </c>
       <c r="B474" s="1">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="L474" s="1" t="s">
         <v>15</v>
@@ -17076,7 +17124,7 @@
         <v>1</v>
       </c>
       <c r="B475" s="1">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="L475" s="1" t="s">
         <v>15</v>
@@ -17087,7 +17135,7 @@
         <v>1</v>
       </c>
       <c r="B476" s="1">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="L476" s="1" t="s">
         <v>15</v>
@@ -17098,7 +17146,7 @@
         <v>1</v>
       </c>
       <c r="B477" s="1">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L477" s="1" t="s">
         <v>15</v>
@@ -17109,7 +17157,7 @@
         <v>1</v>
       </c>
       <c r="B478" s="1">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="L478" s="1" t="s">
         <v>15</v>
@@ -17120,190 +17168,14 @@
         <v>1</v>
       </c>
       <c r="B479" s="1">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="L479" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A480" s="1">
-        <v>1</v>
-      </c>
-      <c r="B480" s="1">
-        <v>48</v>
-      </c>
       <c r="L480" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A481" s="1">
-        <v>1</v>
-      </c>
-      <c r="B481" s="1">
-        <v>49</v>
-      </c>
-      <c r="L481" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A482" s="1">
-        <v>1</v>
-      </c>
-      <c r="B482" s="1">
-        <v>50</v>
-      </c>
-      <c r="L482" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A483" s="1">
-        <v>1</v>
-      </c>
-      <c r="B483" s="1">
-        <v>51</v>
-      </c>
-      <c r="L483" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A484" s="1">
-        <v>1</v>
-      </c>
-      <c r="B484" s="1">
-        <v>52</v>
-      </c>
-      <c r="L484" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A485" s="1">
-        <v>1</v>
-      </c>
-      <c r="B485" s="1">
-        <v>53</v>
-      </c>
-      <c r="L485" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A486" s="1">
-        <v>1</v>
-      </c>
-      <c r="B486" s="1">
-        <v>54</v>
-      </c>
-      <c r="L486" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A487" s="1">
-        <v>1</v>
-      </c>
-      <c r="B487" s="1">
-        <v>55</v>
-      </c>
-      <c r="L487" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A488" s="1">
-        <v>1</v>
-      </c>
-      <c r="B488" s="1">
-        <v>56</v>
-      </c>
-      <c r="L488" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A489" s="1">
-        <v>1</v>
-      </c>
-      <c r="B489" s="1">
-        <v>57</v>
-      </c>
-      <c r="L489" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A490" s="1">
-        <v>1</v>
-      </c>
-      <c r="B490" s="1">
-        <v>58</v>
-      </c>
-      <c r="L490" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A491" s="1">
-        <v>1</v>
-      </c>
-      <c r="B491" s="1">
-        <v>59</v>
-      </c>
-      <c r="L491" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A492" s="1">
-        <v>1</v>
-      </c>
-      <c r="B492" s="1">
-        <v>60</v>
-      </c>
-      <c r="L492" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A493" s="1">
-        <v>1</v>
-      </c>
-      <c r="B493" s="1">
-        <v>61</v>
-      </c>
-      <c r="L493" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A494" s="1">
-        <v>1</v>
-      </c>
-      <c r="B494" s="1">
-        <v>62</v>
-      </c>
-      <c r="L494" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A495" s="1">
-        <v>1</v>
-      </c>
-      <c r="B495" s="1">
-        <v>63</v>
-      </c>
-      <c r="L495" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L496" s="1" t="s">
         <v>15</v>
       </c>
     </row>
